--- a/Zad5/Zeszyt1.xlsx
+++ b/Zad5/Zeszyt1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamludwiczak/Projects/MPwI/Zad5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaml\Documents\MPwI\Zad5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9720C1-7CF9-8440-A693-6C71439AB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E754E9-EB25-4A12-9EC4-E59F95A51CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9A6EEB2D-8B60-544A-B7DC-3C0B3B025B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{9A6EEB2D-8B60-544A-B7DC-3C0B3B025B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1220,6 +1220,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wartości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> standaryzowane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1804,6 +1833,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wartości</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> skumulowane</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44478386807998671"/>
+              <c:y val="0.9069347149161876"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1866,6 +1962,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wartości</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> standaryzowane</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2004,37 +2159,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2043,6 +2168,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dystrybuanta teoretyczna rozkładu logarytmowanego</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
@@ -2515,6 +2651,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prawdopodobienstwo skumulowane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3014,6 +3161,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wartości posortowane</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3076,6 +3278,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Prawdopodobieństwo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3125,6 +3382,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4951,12 +5239,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E35FE2B-F2E6-E041-8C85-EDF6CE045A86}" name="Tabela1" displayName="Tabela1" ref="A1:G71" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E35FE2B-F2E6-E041-8C85-EDF6CE045A86}" name="Tabela1" displayName="Tabela1" ref="A1:G71" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G71" xr:uid="{8E35FE2B-F2E6-E041-8C85-EDF6CE045A86}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D182D09A-3269-7C44-83A7-A00106D773A1}" name="Nr." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{69B021C6-3FC1-4D41-AE0D-CC0653225281}" name="Dane wejściowe" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D4B01F51-7BD4-2341-B0D1-79FCF049F4AC}" name="Dane posortowane" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D182D09A-3269-7C44-83A7-A00106D773A1}" name="Nr." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{69B021C6-3FC1-4D41-AE0D-CC0653225281}" name="Dane wejściowe" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D4B01F51-7BD4-2341-B0D1-79FCF049F4AC}" name="Dane posortowane" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00E54BE7-24E5-3446-99AF-CF9934E95C98}" name="Log naturalny" dataDxfId="3">
       <calculatedColumnFormula>LN(Tabela1[[#This Row],[Dane posortowane]])</calculatedColumnFormula>
     </tableColumn>
@@ -5273,23 +5561,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEADF9-656E-4841-A87D-9280986EAEEF}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="81" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D51" zoomScale="81" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5370,7 +5658,7 @@
         <v>-1.6600338627235325</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5415,7 +5703,7 @@
         <v>1.0492275968735674E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5442,7 +5730,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5469,7 +5757,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5496,7 +5784,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5523,7 +5811,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5550,7 +5838,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5577,7 +5865,7 @@
         <v>5.6672438485748149E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5604,7 +5892,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5631,7 +5919,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5658,7 +5946,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5685,7 +5973,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5712,7 +6000,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5739,7 +6027,7 @@
         <v>0.14118188612681659</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5766,7 +6054,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5793,7 +6081,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5820,7 +6108,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5847,7 +6135,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5874,7 +6162,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5901,7 +6189,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5928,7 +6216,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5955,7 +6243,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5982,7 +6270,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6009,7 +6297,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6036,7 +6324,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6063,7 +6351,7 @@
         <v>0.284539149040336</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6090,7 +6378,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6117,7 +6405,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6144,7 +6432,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6171,7 +6459,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6198,7 +6486,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6225,7 +6513,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6252,7 +6540,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6279,7 +6567,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6306,7 +6594,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6333,7 +6621,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6360,7 +6648,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6387,7 +6675,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6414,7 +6702,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6441,7 +6729,7 @@
         <v>0.47350476039245271</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6468,7 +6756,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6495,7 +6783,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6522,7 +6810,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6549,7 +6837,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6576,7 +6864,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6603,7 +6891,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6630,7 +6918,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6657,7 +6945,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6684,7 +6972,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6711,7 +6999,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6738,7 +7026,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6765,7 +7053,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6792,7 +7080,7 @@
         <v>0.66779916431919584</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6819,7 +7107,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6846,7 +7134,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6873,7 +7161,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6900,7 +7188,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6927,7 +7215,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6954,7 +7242,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6981,7 +7269,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7008,7 +7296,7 @@
         <v>0.82421238048606882</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7035,7 +7323,7 @@
         <v>0.92315914613713501</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7062,7 +7350,7 @@
         <v>0.92315914613713501</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7089,7 +7377,7 @@
         <v>0.92315914613713501</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7116,7 +7404,7 @@
         <v>0.92315914613713501</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7143,7 +7431,7 @@
         <v>0.92315914613713501</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7170,7 +7458,7 @@
         <v>0.97252028587153694</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7197,7 +7485,7 @@
         <v>0.97252028587153694</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7224,7 +7512,7 @@
         <v>0.97252028587153694</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
